--- a/sounds/sounds.xlsx
+++ b/sounds/sounds.xlsx
@@ -478,1016 +478,1020 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7051840377233476870</t>
+          <t>7055715819493412102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lo que subo a esta hora no me define como persona</t>
+          <t>Jejeje 🤪 #parati #fyp</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12300000</v>
+        <v>1000000</v>
       </c>
       <c r="D2" t="n">
-        <v>192400</v>
+        <v>4543</v>
       </c>
       <c r="E2" t="n">
-        <v>101200</v>
+        <v>6342</v>
       </c>
       <c r="F2" t="n">
-        <v>87400000</v>
+        <v>3900000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-01-11 07:02:18</t>
+          <t>2022-01-21 17:40:56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@valemadrigal.1/video/7051840377233476870</t>
+          <t>https://www.tiktok.com/@yosephnavarro1/video/7055715819493412102</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7052530570563259653</t>
+          <t>7056122851501280517</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lo siento bebeeeeee jajaja😂❤️ @nalgalia.g</t>
+          <t>😎 #noesbait #fyppppppppppppppppppppppp #hellokittyparapresidenta</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4400000</v>
+        <v>808700</v>
       </c>
       <c r="D3" t="n">
-        <v>59700</v>
+        <v>27800</v>
       </c>
       <c r="E3" t="n">
-        <v>18800</v>
+        <v>9299</v>
       </c>
       <c r="F3" t="n">
-        <v>40700000</v>
+        <v>3200000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-01-13 03:40:34</t>
+          <t>2022-01-22 20:00:26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@stephano_kohel/video/7052530570563259653</t>
+          <t>https://www.tiktok.com/@user999092206tumama/video/7056122851501280517</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7054978932122357039</t>
+          <t>7055357167502740742</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No les hice caso 😂❤️😅</t>
+          <t>#fyp #parati #❤️🇵🇪 #c_mamo02</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4000000</v>
+        <v>783000</v>
       </c>
       <c r="D4" t="n">
-        <v>48000</v>
+        <v>15100</v>
       </c>
       <c r="E4" t="n">
-        <v>15000</v>
+        <v>10100</v>
       </c>
       <c r="F4" t="n">
-        <v>46700000</v>
+        <v>1900000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2022-01-19 18:01:27</t>
+          <t>2022-01-20 18:29:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kaileenleilani/video/7054978932122357039</t>
+          <t>https://www.tiktok.com/@c_mamo02/video/7055357167502740742</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7053858232854482182</t>
+          <t>7065492879031962886</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No me dejan grabar 😂</t>
+          <t>cosas qué pasan .</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3500000</v>
+        <v>751100</v>
       </c>
       <c r="D5" t="n">
-        <v>84600</v>
+        <v>184</v>
       </c>
       <c r="E5" t="n">
-        <v>16500</v>
+        <v>563</v>
       </c>
       <c r="F5" t="n">
-        <v>34500000</v>
+        <v>2200000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2022-01-16 17:32:34</t>
+          <t>2022-02-17 02:00:56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@issavegas.fit/video/7053858232854482182</t>
+          <t>https://www.tiktok.com/@laurebarca/video/7065492879031962886</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7052519221753859334</t>
+          <t>7063608157867756806</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ay noOooOo #viral #parati #foryou #fypシ</t>
+          <t>😈 Toma Tuchi</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3300000</v>
+        <v>713800</v>
       </c>
       <c r="D6" t="n">
-        <v>16200</v>
+        <v>1582</v>
       </c>
       <c r="E6" t="n">
-        <v>9481</v>
+        <v>3650</v>
       </c>
       <c r="F6" t="n">
-        <v>24800000</v>
+        <v>5500000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2022-01-13 02:56:31</t>
+          <t>2022-02-12 00:07:15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@amaya_sog/video/7052519221753859334</t>
+          <t>https://www.tiktok.com/@kevlexd/video/7063608157867756806</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7056943601225370885</t>
+          <t>7062577577977711877</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jajaja mil Gracias los amo ya 5.5 millonesss🤌🏼</t>
+          <t>ggg</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3100000</v>
+        <v>685100</v>
       </c>
       <c r="D7" t="n">
-        <v>8208</v>
+        <v>14900</v>
       </c>
       <c r="E7" t="n">
-        <v>6042</v>
+        <v>2927</v>
       </c>
       <c r="F7" t="n">
-        <v>25400000</v>
+        <v>4400000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2022-01-25 01:05:22</t>
+          <t>2022-02-09 05:28:07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@valemadrigal.1/video/7056943601225370885</t>
+          <t>https://www.tiktok.com/@amavenee/video/7062577577977711877</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7053503691919215877</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>7061394413393612038</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Y ya le gustan mis mates❤️ @julicremaschi// @franferellaa @clari_cremaschi 🤝</t>
+        </is>
+      </c>
       <c r="C8" t="n">
-        <v>2500000</v>
+        <v>652600</v>
       </c>
       <c r="D8" t="n">
-        <v>14900</v>
+        <v>1332</v>
       </c>
       <c r="E8" t="n">
-        <v>4074</v>
+        <v>1119</v>
       </c>
       <c r="F8" t="n">
-        <v>21400000</v>
+        <v>5300000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2022-01-15 18:36:45</t>
+          <t>2022-02-06 00:56:48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@shey_latorre/video/7053503691919215877</t>
+          <t>https://www.tiktok.com/@lauferella/video/7061394413393612038</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7054764726894578950</t>
+          <t>7058077163001548037</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JAJDJSJA te amo @leandrotejera5</t>
+          <t>Y después del chisme no te habla una semana, 🤨🍷(jaja si ves esto me hackearon) #❤️🇵🇪 #c_mamo02 #fyp #parati</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2400000</v>
+        <v>612500</v>
       </c>
       <c r="D9" t="n">
-        <v>17700</v>
+        <v>15700</v>
       </c>
       <c r="E9" t="n">
-        <v>11400</v>
+        <v>13400</v>
       </c>
       <c r="F9" t="n">
-        <v>6400000</v>
+        <v>1500000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2022-01-19 04:10:15</t>
+          <t>2022-01-28 02:24:11</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@aldanaponton/video/7054764726894578950</t>
+          <t>https://www.tiktok.com/@c_mamo02/video/7058077163001548037</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7048007320336452870</t>
+          <t>7045692147995004166</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ayayai chao y hasta luego 🤣 @sofia.farfann</t>
+          <t>#viral #fpyシ  #parati #azybca</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2200000</v>
+        <v>594900</v>
       </c>
       <c r="D10" t="n">
-        <v>16900</v>
+        <v>1095</v>
       </c>
       <c r="E10" t="n">
-        <v>6889</v>
+        <v>3197</v>
       </c>
       <c r="F10" t="n">
-        <v>22900000</v>
+        <v>5800000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2021-12-31 23:08:01</t>
+          <t>2021-12-25 17:23:58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kevin.nuvan/video/7048007320336452870</t>
+          <t>https://www.tiktok.com/@rambolove7/video/7045692147995004166</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7056483613616966917</t>
+          <t>7059503703769861381</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>👶🏼🍼#foryoupage #joke</t>
+          <t>Cuantos besos has logrado dar este año XD?😘💗#kiss</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2200000</v>
+        <v>593200</v>
       </c>
       <c r="D11" t="n">
-        <v>40900</v>
+        <v>3099</v>
       </c>
       <c r="E11" t="n">
-        <v>23200</v>
+        <v>6290</v>
       </c>
       <c r="F11" t="n">
-        <v>6300000</v>
+        <v>8800000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2022-01-23 19:20:22</t>
+          <t>2022-01-31 22:39:52</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@natalka.kochanie/video/7056483613616966917</t>
+          <t>https://www.tiktok.com/@laleyendadeluci/video/7059503703769861381</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7054805455079607558</t>
+          <t>7058832254293789958</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jajajajaja oigan me la vivo en fyp con edits míos jajajaja</t>
+          <t>contenido jaja #fyp #foryou #parati #mexico #lentejas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2200000</v>
+        <v>592100</v>
       </c>
       <c r="D12" t="n">
-        <v>7398</v>
+        <v>892</v>
       </c>
       <c r="E12" t="n">
-        <v>8154</v>
+        <v>946</v>
       </c>
       <c r="F12" t="n">
-        <v>18300000</v>
+        <v>1500000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2022-01-19 06:48:20</t>
+          <t>2022-01-30 03:14:19</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@valemadrigal.1/video/7054805455079607558</t>
+          <t>https://www.tiktok.com/@meelgrajales/video/7058832254293789958</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7057987591165168901</t>
+          <t>7062111023557332229</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hits Different🤚🏻</t>
+          <t>#dúo con @lauferella que opinan?</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2100000</v>
+        <v>564200</v>
       </c>
       <c r="D13" t="n">
-        <v>10800</v>
+        <v>442</v>
       </c>
       <c r="E13" t="n">
-        <v>14100</v>
+        <v>584</v>
       </c>
       <c r="F13" t="n">
-        <v>14700000</v>
+        <v>5300000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2022-01-27 20:36:34</t>
+          <t>2022-02-07 23:17:37</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kallmewhateveryouwant/video/7057987591165168901</t>
+          <t>https://www.tiktok.com/@franferellaa/video/7062111023557332229</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7058407501800295685</t>
+          <t>7058776765052833030</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>no me lo borren :/</t>
+          <t>quién en el live de ayer ?💘</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2100000</v>
+        <v>556900</v>
       </c>
       <c r="D14" t="n">
-        <v>7718</v>
+        <v>950</v>
       </c>
       <c r="E14" t="n">
-        <v>22500</v>
+        <v>3048</v>
       </c>
       <c r="F14" t="n">
-        <v>12600000</v>
+        <v>3700000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2022-01-28 23:46:03</t>
+          <t>2022-01-29 23:38:59</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@domelipa/video/7058407501800295685</t>
+          <t>https://www.tiktok.com/@ingratax/video/7058776765052833030</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7055349887390502150</t>
+          <t>7060043978015608070</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>lo tenía que hacer con tom</t>
+          <t>#fyp</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2000000</v>
+        <v>555400</v>
       </c>
       <c r="D15" t="n">
-        <v>29600</v>
+        <v>8430</v>
       </c>
       <c r="E15" t="n">
-        <v>20500</v>
+        <v>6074</v>
       </c>
       <c r="F15" t="n">
-        <v>10600000</v>
+        <v>5600000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2022-01-20 18:00:56</t>
+          <t>2022-02-02 09:36:26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ozuedits/video/7055349887390502150</t>
+          <t>https://www.tiktok.com/@luly.cetrini12/video/7060043978015608070</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7054712857996315909</t>
+          <t>7057611088304606470</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bailar en publico/ bailar solo frente al espejo de tu cuarto</t>
+          <t>#fypシ  los veo en el concierto de mi novio 😈</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2000000</v>
+        <v>552900</v>
       </c>
       <c r="D16" t="n">
-        <v>15000</v>
+        <v>18300</v>
       </c>
       <c r="E16" t="n">
-        <v>20200</v>
+        <v>13900</v>
       </c>
       <c r="F16" t="n">
-        <v>16400000</v>
+        <v>3600000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2022-01-19 00:48:57</t>
+          <t>2022-01-26 20:15:33</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@any_cemar/video/7054712857996315909</t>
+          <t>https://www.tiktok.com/@_kharbby/video/7057611088304606470</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7056741530878381318</t>
+          <t>7056514126264274182</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C.:@valemadrigal.1</t>
+          <t>Dale 3 veces a la flechita compartir like y veras que tendras mi 📲#parati #fyp #xyzbca #viral #greenscreen</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1900000</v>
+        <v>550300</v>
       </c>
       <c r="D17" t="n">
-        <v>13200</v>
+        <v>6700</v>
       </c>
       <c r="E17" t="n">
-        <v>5331</v>
+        <v>6788</v>
       </c>
       <c r="F17" t="n">
-        <v>10900000</v>
+        <v>15100000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2022-01-24 12:01:14</t>
+          <t>2022-01-23 21:18:47</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@anaveriga/video/7056741530878381318</t>
+          <t>https://www.tiktok.com/@jericktriana/video/7056514126264274182</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7058284349082406150</t>
+          <t>7062800785448455430</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Isso acontece muito, vcs não tem noção kakakakakak @Alisson Ramalho @Lica Liziane Lopes R</t>
+          <t>Les dedico este videos a todos lo que querían un vídeo &lt;3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1900000</v>
+        <v>538600</v>
       </c>
       <c r="D18" t="n">
-        <v>3591</v>
+        <v>5646</v>
       </c>
       <c r="E18" t="n">
-        <v>9428</v>
+        <v>2867</v>
       </c>
       <c r="F18" t="n">
-        <v>16500000</v>
+        <v>5300000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2022-01-28 15:48:09</t>
+          <t>2022-02-09 19:54:14</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@vanessalopesr/video/7058284349082406150</t>
+          <t>https://www.tiktok.com/@_tu_chica_xd12/video/7062800785448455430</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7052570064154905862</t>
+          <t>7058796507000048901</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jajajaja lo que subo a esta hora no me define como persona part2</t>
+          <t>@strangehumano último de Max 💙 los amoooooo🕷#maxvalenzuela #y2k</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1800000</v>
+        <v>536700</v>
       </c>
       <c r="D19" t="n">
-        <v>18900</v>
+        <v>1085</v>
       </c>
       <c r="E19" t="n">
-        <v>4633</v>
+        <v>2832</v>
       </c>
       <c r="F19" t="n">
-        <v>11700000</v>
+        <v>5400000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2022-01-13 06:13:51</t>
+          <t>2022-01-30 00:55:35</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@valemadrigal.1/video/7052570064154905862</t>
+          <t>https://www.tiktok.com/@johnofjohnof/video/7058796507000048901</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7054310052097838342</t>
+          <t>7064011034209553670</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>😅</t>
+          <t>Sabadito keloke @rociomarfil</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1700000</v>
+        <v>525900</v>
       </c>
       <c r="D20" t="n">
-        <v>8678</v>
+        <v>2565</v>
       </c>
       <c r="E20" t="n">
-        <v>21000</v>
+        <v>1466</v>
       </c>
       <c r="F20" t="n">
-        <v>15600000</v>
+        <v>5900000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2022-01-17 22:45:51</t>
+          <t>2022-02-13 02:10:37</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@kimberly.loaiza/video/7054310052097838342</t>
+          <t>https://www.tiktok.com/@sofiiablanca/video/7064011034209553670</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7055046846409886977</t>
+          <t>7054301104208628997</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>no puedo seguir 😏</t>
+          <t>Ah kgon</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1500000</v>
+        <v>523700</v>
       </c>
       <c r="D21" t="n">
-        <v>23900</v>
+        <v>14700</v>
       </c>
       <c r="E21" t="n">
-        <v>23400</v>
+        <v>3371</v>
       </c>
       <c r="F21" t="n">
-        <v>7900000</v>
+        <v>3900000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2022-01-19 22:24:59</t>
+          <t>2022-01-17 22:11:08</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@vlad.hoshin/video/7055046846409886977</t>
+          <t>https://www.tiktok.com/@sebaspretell/video/7054301104208628997</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7056774969375657221</t>
+          <t>7058298508092116230</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#viral ig:ismael_sanchez18❌</t>
+          <t>Atrapadaaaa // sígueme en insta: jhoelinho07 #fyp #parati #foryou</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1500000</v>
+        <v>522000</v>
       </c>
       <c r="D22" t="n">
-        <v>49600</v>
+        <v>8618</v>
       </c>
       <c r="E22" t="n">
-        <v>18300</v>
+        <v>3582</v>
       </c>
       <c r="F22" t="n">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2022-01-24 14:10:59</t>
+          <t>2022-01-28 16:43:06</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@_ismaelsanchez18/video/7056774969375657221</t>
+          <t>https://www.tiktok.com/@jhoelinho1/video/7058298508092116230</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7054021688882711814</t>
+          <t>7063646808643210501</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#virall #fypシ #paratii ps si mi hermana caga mis vidiOs🐘</t>
+          <t>O qué opinan? 🥴</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1500000</v>
+        <v>502000</v>
       </c>
       <c r="D23" t="n">
-        <v>2607</v>
+        <v>15100</v>
       </c>
       <c r="E23" t="n">
-        <v>5709</v>
+        <v>15700</v>
       </c>
       <c r="F23" t="n">
-        <v>8400000</v>
+        <v>5300000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2022-01-17 04:06:53</t>
+          <t>2022-02-12 02:37:14</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@imfati01/video/7054021688882711814</t>
+          <t>https://www.tiktok.com/@piloaguilar/video/7063646808643210501</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7058191776598772993</t>
+          <t>7057541086096444677</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>audio credit:@sugadaddeh #taehyung</t>
+          <t>Ese por q me gusto 🤎#pypシ #viral #pyfツ #paratiii</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1400000</v>
+        <v>490700</v>
       </c>
       <c r="D24" t="n">
-        <v>21700</v>
+        <v>1715</v>
       </c>
       <c r="E24" t="n">
-        <v>5628</v>
+        <v>2411</v>
       </c>
       <c r="F24" t="n">
-        <v>4200000</v>
+        <v>5200000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2022-01-28 09:48:55</t>
+          <t>2022-01-26 15:43:55</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@_taekookiey_/video/7058191776598772993</t>
+          <t>https://www.tiktok.com/@its_yohisy/video/7057541086096444677</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7053605386292563205</t>
+          <t>7056232388048768262</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Responder a @mailengomez130 🦋Tom Holland🦋 #fyp #fypシ゚viral #xyzbca #tomholland #fypシ #parati #viral #crzgf</t>
+          <t>q raro #fypシ</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1400000</v>
+        <v>486800</v>
       </c>
       <c r="D25" t="n">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3162</v>
       </c>
       <c r="F25" t="n">
-        <v>10700000</v>
+        <v>1300000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2022-01-16 01:11:23</t>
+          <t>2022-01-23 03:05:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@armam383/video/7053605386292563205</t>
+          <t>https://www.tiktok.com/@yaz.agg/video/7056232388048768262</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7052046174735453446</t>
+          <t>7065305058652458246</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Les pasa??</t>
+          <t>JAJAJAJ ig: camiraso3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1300000</v>
+        <v>457100</v>
       </c>
       <c r="D26" t="n">
-        <v>9267</v>
+        <v>5225</v>
       </c>
       <c r="E26" t="n">
-        <v>2354</v>
+        <v>2304</v>
       </c>
       <c r="F26" t="n">
-        <v>11200000</v>
+        <v>4300000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2022-01-11 20:20:51</t>
+          <t>2022-02-16 13:52:05</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@valemadrigal.1/video/7052046174735453446</t>
+          <t>https://www.tiktok.com/@camiiraso7/video/7065305058652458246</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7053573982703865093</t>
+          <t>7061308673003457798</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>soy la morrita que aparece en los videos de “wattpad”  jajajajajja</t>
+          <t>Jajajajajjaja #fyp</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1300000</v>
+        <v>441500</v>
       </c>
       <c r="D27" t="n">
-        <v>1018</v>
+        <v>1744</v>
       </c>
       <c r="E27" t="n">
-        <v>2081</v>
+        <v>927</v>
       </c>
       <c r="F27" t="n">
-        <v>8100000</v>
+        <v>4500000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2022-01-15 23:09:31</t>
+          <t>2022-02-05 19:24:04</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@valemadrigal.1/video/7053573982703865093</t>
+          <t>https://www.tiktok.com/@majocifuentess/video/7061308673003457798</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7051021970976050438</t>
+          <t>7060957372130397445</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Es TrAviezza😈 @valemadrigal.1</t>
+          <t>a mi sola me pasa #fyp #viral #parati</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1200000</v>
+        <v>433200</v>
       </c>
       <c r="D28" t="n">
-        <v>6750</v>
+        <v>1892</v>
       </c>
       <c r="E28" t="n">
-        <v>1993</v>
+        <v>1434</v>
       </c>
       <c r="F28" t="n">
-        <v>10900000</v>
+        <v>3800000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2022-01-09 02:06:25</t>
+          <t>2022-02-04 20:40:51</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@xibibrothers/video/7051021970976050438</t>
+          <t>https://www.tiktok.com/@martinatuluu/video/7060957372130397445</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7057268010599386373</t>
+          <t>7063234936479747333</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#leonardodicaprio | ib: @ozuedits</t>
+          <t>Otra vez dando regalitos es mi Live 😈🍑</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1200000</v>
+        <v>430600</v>
       </c>
       <c r="D29" t="n">
-        <v>21000</v>
+        <v>606</v>
       </c>
       <c r="E29" t="n">
-        <v>19800</v>
+        <v>1367</v>
       </c>
       <c r="F29" t="n">
-        <v>5500000</v>
+        <v>4000000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2022-01-25 22:04:14</t>
+          <t>2022-02-10 23:58:58</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@editsstiles/video/7057268010599386373</t>
+          <t>https://www.tiktok.com/@eliperez0321/video/7063234936479747333</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7054670527964663045</t>
+          <t>7060295360752766214</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Me quede sin espalda 😫</t>
+          <t>Mia @claricremaschi</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1200000</v>
+        <v>414400</v>
       </c>
       <c r="D30" t="n">
-        <v>1867</v>
+        <v>1097</v>
       </c>
       <c r="E30" t="n">
-        <v>2313</v>
+        <v>878</v>
       </c>
       <c r="F30" t="n">
-        <v>8600000</v>
+        <v>3500000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2022-01-18 22:04:41</t>
+          <t>2022-02-03 01:51:55</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@naileaarellano0/video/7054670527964663045</t>
+          <t>https://www.tiktok.com/@franferellaa/video/7060295360752766214</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7051285014155201797</t>
+          <t>7057732748475124998</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>😇#viral #fypシ #xyzbca @jefersonsuarez12111</t>
+          <t>Insta//Astrid3g02 🦋etiqueta a tu amiga la bandida 😳</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1100000</v>
+        <v>379900</v>
       </c>
       <c r="D31" t="n">
-        <v>24300</v>
+        <v>2645</v>
       </c>
       <c r="E31" t="n">
-        <v>7841</v>
+        <v>918</v>
       </c>
       <c r="F31" t="n">
-        <v>12600000</v>
+        <v>1300000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2022-01-09 19:07:09</t>
+          <t>2022-01-27 04:07:41</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@yeisonhp_/video/7051285014155201797</t>
+          <t>https://www.tiktok.com/@astrid3g02/video/7057732748475124998</t>
         </is>
       </c>
     </row>
